--- a/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,9%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>39,19; 51,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>39,34; 51,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>56,98; 69,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>50,01; 62,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>48,23; 60,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>75,99; 83,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>46,27; 54,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>45,72; 54,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>67,81; 75,15</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>43,97; 52,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>46,0; 55,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>40,81; 49,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>40,83; 51,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>54,52; 62,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>59,46; 68,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>49,19; 57,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>52,02; 60,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>50,74; 57,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>53,98; 60,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>46,15; 52,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>47,72; 54,85</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,79%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>36,28; 47,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>37,24; 47,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>25,67; 35,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>48,3; 59,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>63,71; 73,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>47,12; 58,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>28,55; 39,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>47,55; 56,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>52,1; 59,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>43,53; 51,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>28,39; 35,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>49,33; 56,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,39%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>35,99; 46,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>39,51; 47,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>50,82; 61,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>42,15; 56,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>55,44; 65,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>48,78; 56,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>58,95; 68,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>43,6; 56,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>47,29; 54,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>45,25; 50,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>56,11; 63,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>45,3; 55,07</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,5%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,6%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>27,55; 41,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>37,43; 51,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>25,07; 37,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>35,47; 47,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>41,57; 56,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>51,11; 64,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>32,57; 45,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>48,21; 57,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>36,46; 46,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>46,12; 56,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>30,71; 40,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>43,63; 51,74</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,74%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>37,37; 49,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>41,46; 54,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>29,11; 40,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>50,39; 61,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>63,52; 74,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>49,25; 61,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>39,69; 51,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>56,72; 66,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>52,08; 60,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>47,1; 56,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>36,13; 44,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>54,98; 62,5</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,52%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,33%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>41,53; 49,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>37,5; 45,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>34,15; 42,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>44,67; 53,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>52,95; 61,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>49,25; 56,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>45,46; 52,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>50,89; 72,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>48,74; 54,15</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>44,84; 49,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>41,22; 46,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>49,54; 64,8</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,9%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>34,58; 42,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>38,0; 45,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>28,41; 35,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>29,67; 47,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>43,42; 50,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>46,29; 53,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>38,55; 45,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>37,25; 43,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>40,22; 45,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>43,12; 48,07</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>35,06; 39,82</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>35,07; 44,46</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,61%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>40,72; 44,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>42,17; 45,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,42; 40,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,78; 49,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>55,26; 58,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>52,73; 55,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>46,06; 49,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>51,92; 58,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,72; 51,26</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,15; 50,48</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>42,2; 44,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>49,12; 53,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,32%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>69,99%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,76; 56,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,98; 69,64</t>
+          <t>53,96; 68,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,62; 61,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,99; 83,58</t>
+          <t>75,24; 83,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,99; 57,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>67,81; 75,15</t>
+          <t>65,2; 73,83</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>50,38%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,83; 51,81</t>
+          <t>39,37; 50,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,02; 60,13</t>
+          <t>51,93; 60,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,72; 54,85</t>
+          <t>46,62; 53,93</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>52,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>52,79%</t>
+          <t>52,25%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,3; 59,5</t>
+          <t>47,31; 58,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,55; 56,67</t>
+          <t>47,28; 56,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,33; 56,19</t>
+          <t>48,64; 55,67</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>37,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>50,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,07%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>44,88%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,51; 47,58</t>
+          <t>32,59; 42,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,15; 56,76</t>
+          <t>41,24; 56,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,78; 56,55</t>
+          <t>44,67; 55,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,6; 56,43</t>
+          <t>24,39; 53,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,25; 50,85</t>
+          <t>40,64; 48,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>45,3; 55,07</t>
+          <t>31,53; 51,73</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>47,61%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,47; 47,37</t>
+          <t>35,54; 47,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,21; 57,98</t>
+          <t>48,17; 57,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>43,63; 51,74</t>
+          <t>43,69; 51,69</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>54,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>62,02%</t>
+          <t>62,03%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>58,36%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,39; 61,19</t>
+          <t>49,68; 60,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56,72; 66,91</t>
+          <t>56,77; 66,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,98; 62,5</t>
+          <t>54,56; 62,35</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>58,52%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>54,33%</t>
+          <t>56,9%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,67; 53,53</t>
+          <t>43,66; 53,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,89; 72,76</t>
+          <t>50,77; 80,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,54; 64,8</t>
+          <t>49,02; 71,4</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>49,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>45,73%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,67; 47,78</t>
+          <t>30,05; 75,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,25; 43,77</t>
+          <t>37,6; 44,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>35,07; 44,46</t>
+          <t>35,62; 67,64</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>54,06%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>52,33%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>44,78; 49,73</t>
+          <t>45,31; 60,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>51,92; 58,75</t>
+          <t>50,82; 62,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,12; 53,35</t>
+          <t>49,18; 58,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,19; 51,0</t>
+          <t>38,83; 50,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,76; 56,93</t>
+          <t>44,9; 57,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,34; 51,65</t>
+          <t>39,05; 51,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,96; 68,11</t>
+          <t>52,55; 67,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,01; 62,69</t>
+          <t>50,42; 63,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,62; 61,89</t>
+          <t>49,23; 61,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,23; 60,3</t>
+          <t>48,46; 60,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,24; 83,35</t>
+          <t>74,62; 83,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,27; 54,88</t>
+          <t>46,71; 55,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,99; 57,44</t>
+          <t>48,97; 57,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,72; 54,01</t>
+          <t>45,75; 54,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,2; 73,83</t>
+          <t>65,14; 74,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,97; 52,85</t>
+          <t>44,39; 53,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,0; 55,2</t>
+          <t>45,86; 55,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,81; 49,8</t>
+          <t>40,84; 49,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,37; 50,91</t>
+          <t>39,21; 50,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,52; 62,98</t>
+          <t>54,17; 63,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,46; 68,22</t>
+          <t>59,72; 67,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,19; 57,55</t>
+          <t>48,45; 57,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,93; 60,09</t>
+          <t>51,89; 60,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,74; 57,03</t>
+          <t>50,46; 56,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,98; 60,29</t>
+          <t>53,98; 60,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,15; 52,78</t>
+          <t>45,83; 52,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,62; 53,93</t>
+          <t>47,2; 54,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,28; 47,74</t>
+          <t>37,16; 48,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,24; 47,79</t>
+          <t>36,98; 47,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,67; 35,34</t>
+          <t>25,44; 35,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,31; 58,75</t>
+          <t>46,59; 58,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,71; 73,78</t>
+          <t>64,17; 74,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,12; 58,15</t>
+          <t>47,01; 58,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,55; 39,01</t>
+          <t>28,07; 38,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,28; 56,39</t>
+          <t>47,55; 56,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>52,1; 59,93</t>
+          <t>52,23; 59,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,53; 51,25</t>
+          <t>43,7; 51,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,39; 35,92</t>
+          <t>28,79; 35,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,64; 55,67</t>
+          <t>48,48; 55,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,99; 46,29</t>
+          <t>36,1; 46,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,59; 42,73</t>
+          <t>32,05; 42,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,82; 61,07</t>
+          <t>50,31; 60,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,24; 56,36</t>
+          <t>41,7; 57,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,44; 65,47</t>
+          <t>55,51; 65,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,67; 55,3</t>
+          <t>45,48; 55,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,95; 68,8</t>
+          <t>58,48; 68,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,39; 53,33</t>
+          <t>26,27; 52,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,29; 54,68</t>
+          <t>47,65; 55,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,64; 48,18</t>
+          <t>40,56; 48,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56,11; 63,54</t>
+          <t>56,37; 63,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 51,73</t>
+          <t>32,55; 51,94</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,55; 41,03</t>
+          <t>28,03; 41,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,43; 51,54</t>
+          <t>37,53; 51,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,07; 37,87</t>
+          <t>24,3; 37,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,54; 47,41</t>
+          <t>35,74; 48,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,57; 56,18</t>
+          <t>41,55; 55,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,11; 64,84</t>
+          <t>50,86; 64,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,57; 45,69</t>
+          <t>32,95; 45,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,17; 57,74</t>
+          <t>48,11; 57,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,46; 46,79</t>
+          <t>36,69; 46,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,12; 56,05</t>
+          <t>46,85; 56,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,71; 40,05</t>
+          <t>30,71; 39,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>43,69; 51,69</t>
+          <t>43,81; 52,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,37; 49,26</t>
+          <t>37,08; 48,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,46; 54,01</t>
+          <t>41,53; 54,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,11; 40,77</t>
+          <t>29,43; 40,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,68; 60,6</t>
+          <t>49,34; 60,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,52; 74,08</t>
+          <t>63,06; 74,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,25; 61,45</t>
+          <t>49,49; 61,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,69; 51,62</t>
+          <t>39,0; 51,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56,77; 66,98</t>
+          <t>57,2; 66,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,08; 60,56</t>
+          <t>52,0; 60,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,1; 56,09</t>
+          <t>46,95; 55,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>36,13; 44,49</t>
+          <t>36,11; 44,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,56; 62,35</t>
+          <t>54,56; 62,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,53; 49,78</t>
+          <t>41,62; 50,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,5; 45,78</t>
+          <t>37,63; 45,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,15; 42,03</t>
+          <t>34,12; 42,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,66; 53,07</t>
+          <t>42,82; 52,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,95; 61,51</t>
+          <t>53,43; 61,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,25; 56,83</t>
+          <t>48,57; 56,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,46; 52,97</t>
+          <t>45,56; 53,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,77; 80,87</t>
+          <t>50,38; 84,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,74; 54,15</t>
+          <t>48,5; 54,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,84; 49,99</t>
+          <t>44,65; 50,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>41,22; 46,6</t>
+          <t>41,34; 47,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,02; 71,4</t>
+          <t>49,21; 75,47</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,58; 42,1</t>
+          <t>34,7; 42,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>38,0; 45,64</t>
+          <t>38,04; 45,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,41; 35,33</t>
+          <t>28,53; 35,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,05; 75,87</t>
+          <t>30,29; 77,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,42; 50,86</t>
+          <t>43,64; 50,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,29; 53,78</t>
+          <t>46,13; 53,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,55; 45,85</t>
+          <t>38,65; 45,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,6; 44,1</t>
+          <t>37,97; 44,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40,22; 45,49</t>
+          <t>40,18; 45,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>43,12; 48,07</t>
+          <t>43,14; 48,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35,06; 39,82</t>
+          <t>34,63; 39,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>35,62; 67,64</t>
+          <t>35,56; 66,64</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40,72; 44,43</t>
+          <t>40,98; 44,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>42,17; 45,75</t>
+          <t>42,18; 45,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>37,42; 40,8</t>
+          <t>37,42; 40,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45,31; 60,17</t>
+          <t>45,22; 61,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>55,26; 58,74</t>
+          <t>55,36; 58,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,73; 55,95</t>
+          <t>52,61; 56,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>46,06; 49,44</t>
+          <t>45,97; 49,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>50,82; 62,72</t>
+          <t>50,93; 63,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>48,72; 51,26</t>
+          <t>48,6; 51,16</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>48,15; 50,48</t>
+          <t>48,01; 50,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>42,2; 44,66</t>
+          <t>42,23; 44,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,18; 58,74</t>
+          <t>49,01; 58,43</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>122526</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>149415</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>134030</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>189437</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>148082</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>159778</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>156716</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>231287</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>270608</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>309193</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>290746</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>420723</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>106015; 138869</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>132343; 168657</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>114726; 150398</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>163677; 209539</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>131518; 165242</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>141418; 177060</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>139900; 175713</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>216113; 241252</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>249366; 298082</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>284996; 333385</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>266461; 315937</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>391564; 445948</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>239402</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>255536</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>227189</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>232177</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>296105</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>334168</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>278291</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>287324</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>535507</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>589703</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>505480</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>519501</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>218900; 264248</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>231836; 280027</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>205275; 249418</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>202924; 263575</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>273009; 318640</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>312805; 355335</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>253415; 302349</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>266471; 308593</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>503075; 566982</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>555594; 623189</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>470043; 535026</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>486688; 557417</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>134607</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>137108</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>96109</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>164971</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>232914</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>179219</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>113264</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>178911</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>367521</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>316327</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>209373</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>343882</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>118475; 153410</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>119847; 155499</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81050; 113216</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>146315; 183177</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>215242; 248492</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>160320; 198549</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94395; 130230</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>163620; 193800</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>341748; 392507</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>290642; 342419</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>188532; 233629</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>319092; 367864</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>147115</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>140169</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>206637</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>150201</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>224550</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>197115</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>247242</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>198363</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>371665</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>337284</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>453879</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>348564</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>129475; 165603</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>119876; 159897</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>186141; 225114</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>127666; 175525</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>206205; 243127</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>176887; 216820</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>226466; 266172</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>123595; 246813</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>347881; 402560</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>309450; 366413</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>426872; 481310</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>252782; 403416</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>68882</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>94595</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>65605</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>74067</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>101583</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>127974</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>85760</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>109185</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>170465</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>222569</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>151366</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>183251</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>56997; 83366</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>79790; 109856</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>51334; 78878</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>63711; 86038</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>86294; 115218</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>111693; 142043</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72028; 100184</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99413; 119471</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>150787; 190519</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>202487; 243624</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>132011; 170119</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>168606; 200158</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>117581</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>129692</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>92005</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>147654</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>191015</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>156021</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>124033</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>159462</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>308596</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>285714</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>216038</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>307116</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>100415; 132041</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>113783; 147978</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77444; 106535</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>132798; 162887</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>175392; 206086</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>138583; 172074</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>106526; 139730</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>147029; 172086</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>285478; 329697</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>260095; 309974</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>193659; 240353</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>287093; 327854</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>280510</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>276810</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>252194</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>297941</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>365439</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>367879</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>339764</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>536702</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>645949</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>644688</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>591958</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>834644</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>255972; 309330</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>249402; 301679</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>224020; 278221</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>265471; 326491</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>341002; 391247</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>337012; 394912</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>314958; 366399</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>426634; 716421</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>607787; 682840</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>605749; 682125</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>557196; 633428</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>721843; 1106900</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>284319</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>324107</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>248243</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>458464</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>368260</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>409600</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>350192</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>292559</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>652579</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>733707</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>598435</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>751023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>258063; 313824</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>296407; 353156</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>222168; 275323</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>280887; 715435</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>341954; 396812</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>380061; 440156</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>319333; 378052</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>271563; 316113</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>613690; 689956</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>691466; 777035</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>555786; 637914</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>584051; 1094590</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3258</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3167</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2789</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>4907</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1394942</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1507432</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1322013</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1714911</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1927947</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1931754</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1695262</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1993792</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3322889</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3439186</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3017275</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3708703</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1342788; 1458215</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1445255; 1572564</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1270293; 1381491</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1557120; 2116180</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1870650; 1988583</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1871924; 2000271</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1629512; 1758713</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1855580; 2301535</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3234788; 3405160</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3353430; 3524304</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2930007; 3097352</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3473685; 4140835</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>